--- a/xlsx/德语_intext.xlsx
+++ b/xlsx/德语_intext.xlsx
@@ -15,1755 +15,1698 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="564">
   <si>
     <t>德语</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%87_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
+  </si>
+  <si>
+    <t>德文 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E5%BE%B7%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>标准德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
+  </si>
+  <si>
+    <t>奥地利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦斯登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>卢森堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
+  </si>
+  <si>
+    <t>比利时</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>西欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>第二语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B3%BB%E5%B1%9E%E5%88%86%E7%B1%BB</t>
+  </si>
+  <si>
+    <t>语言系属分类</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AC%A7%E8%AF%AD%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>印欧语系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AF%AD%E6%97%8F</t>
+  </si>
+  <si>
+    <t>日耳曼语族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AF%AD%E6%94%AF</t>
+  </si>
+  <si>
+    <t>西日耳曼语支</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E5%BE%B7%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>高地德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%AB%98%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>古高地德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E9%AB%98%E5%9C%B0%E5%BE%B7%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>中古高地德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>拉丁字母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E6%AD%A3%E5%AF%AB%E6%B3%95</t>
+  </si>
+  <si>
+    <t>德语正写法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>官方语言列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>义大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>纳米比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_639-1</t>
+  </si>
+  <si>
+    <t>ISO 639-1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_639-2</t>
+  </si>
+  <si>
+    <t>ISO 639-2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_639-3</t>
+  </si>
+  <si>
+    <t>ISO 639-3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
+  </si>
+  <si>
+    <t>国际音标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E9%A1%B5%E6%B5%8F%E8%A7%88%E5%99%A8</t>
+  </si>
+  <si>
+    <t>网页浏览器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%B1%E7%A0%81</t>
+  </si>
+  <si>
+    <t>乱码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E%E6%94%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>大国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>母语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>马丁·路德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%8F</t>
+  </si>
+  <si>
+    <t>圣经</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>拉丁语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>希腊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦士登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E5%BE%B7%E8%AA%9E%E7%A4%BE%E7%BE%A4</t>
+  </si>
+  <si>
+    <t>比利时德语社群</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B0%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>少数民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%9F%B3%E7%AC%A6</t>
+  </si>
+  <si>
+    <t>分音符</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%9F%B3</t>
+  </si>
+  <si>
+    <t>元音</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%9F</t>
+  </si>
+  <si>
+    <t>ß</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>德语史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
+  </si>
+  <si>
+    <t>中世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%8D%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>词根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>日耳曼语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>法兰克人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
+  </si>
+  <si>
+    <t>方言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97</t>
+  </si>
+  <si>
+    <t>德意志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%B8%E4%BE%AF</t>
+  </si>
+  <si>
+    <t>诸侯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E5%BE%B7%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>低地德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%90%A8%E5%90%8C%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>汉萨同盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7_(%E5%A4%A7%E8%A5%BF%E6%B4%8B)</t>
+  </si>
+  <si>
+    <t>北海 (大西洋)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>波罗的海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>宗教改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E9%98%BF%E5%BE%B7%E9%9A%86</t>
+  </si>
+  <si>
+    <t>约翰·克里斯托弗·阿德隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E5%85%B8</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E5%B8%83%C2%B7%E6%A0%BC%E6%9E%97</t>
+  </si>
+  <si>
+    <t>雅各布·格林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%A0%BC%E6%9E%97</t>
+  </si>
+  <si>
+    <t>威廉·格林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E5%BE%B7%E8%AA%9E%E6%AD%A3%E5%AF%AB%E6%B3%95%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>1996年德语正写法改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E8%81%94%E9%82%A6%E5%AE%AA%E6%B3%95%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>德国联邦宪法法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>荷兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>意大利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>斯洛文尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>卢森堡语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E4%BB%80%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>罗曼什语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>罗马尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
+  </si>
+  <si>
+    <t>匈牙利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
+  </si>
+  <si>
+    <t>捷克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
+  </si>
+  <si>
+    <t>斯洛伐克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%92%82%E7%BD%97%E5%B0%94</t>
+  </si>
+  <si>
+    <t>南蒂罗尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E6%96%87%E5%8C%96%E5%8D%80</t>
+  </si>
+  <si>
+    <t>德语文化区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%88%BE%E8%96%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>亚尔萨斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9E%97</t>
+  </si>
+  <si>
+    <t>洛林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>法国大区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E6%89%8E%E8%AB%BE%E8%87%AA%E6%B2%BB%E7%9C%81</t>
+  </si>
+  <si>
+    <t>波尔扎诺自治省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>爱尔兰共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E5%AD%97%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>德语字母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/A</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%84</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/B</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/D</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/E</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/F</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/G</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/H</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/I</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/J</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/K</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/L</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/M</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/N</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/O</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%96</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/P</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Q</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/R</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/S</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/T</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/U</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%C3%9C</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/V</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/W</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/X</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Y</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Z</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%9F%B3%E5%AD%97%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>元音字母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%85%E9%9F%B3%E5%AD%97%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>辅音字母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>计算机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E7%AC%A6%E7%BC%96%E7%A0%81</t>
+  </si>
+  <si>
+    <t>字符编码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96</t>
+  </si>
+  <si>
+    <t>国际标准</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86%E4%BB%A3%E7%A0%81</t>
+  </si>
+  <si>
+    <t>国家标准代码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/BIG5</t>
+  </si>
+  <si>
+    <t>BIG5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Windows</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Unicode</t>
+  </si>
+  <si>
+    <t>Unicode</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GB2312</t>
+  </si>
+  <si>
+    <t>GB2312</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GNU/Linux</t>
+  </si>
+  <si>
+    <t>GNU/Linux</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTF-8</t>
+  </si>
+  <si>
+    <t>UTF-8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E9%9F%B3%E7%B3%BB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>德语音系学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E9%9F%B3</t>
+  </si>
+  <si>
+    <t>重音</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%9D%A5%E8%AF%8D</t>
+  </si>
+  <si>
+    <t>外来词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%B9%B9</t>
+  </si>
+  <si>
+    <t>词干</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%8A%82</t>
+  </si>
+  <si>
+    <t>音节</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BC%80</t>
+  </si>
+  <si>
+    <t>前缀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%BC%80</t>
+  </si>
+  <si>
+    <t>后缀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E9%9F%B3</t>
+  </si>
+  <si>
+    <t>长音</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD%E8%AF%AD%E6%B3%95</t>
+  </si>
+  <si>
+    <t>德语语法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%88%E6%8A%98%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>屈折语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>孤立语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>瑞典语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>俄语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>波兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>梵语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%90%90%E6%BA%AB</t>
+  </si>
+  <si>
+    <t>马克·吐温</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC_(%E8%AF%AD%E6%B3%95)</t>
+  </si>
+  <si>
+    <t>格 (语法)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0_(%E8%AF%AD%E6%B3%95)</t>
+  </si>
+  <si>
+    <t>数 (语法)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%A9%9E</t>
+  </si>
+  <si>
+    <t>名词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%AE%B9%E8%AF%8D</t>
+  </si>
+  <si>
+    <t>形容词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%A9%9E</t>
+  </si>
+  <si>
+    <t>副词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%A0%E8%AF%8D</t>
+  </si>
+  <si>
+    <t>冠词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>变格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%A7%B0</t>
+  </si>
+  <si>
+    <t>人称</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E6%80%81</t>
+  </si>
+  <si>
+    <t>时态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%B0%A3</t>
+  </si>
+  <si>
+    <t>语气</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%BD%A2%E8%AE%8A%E5%8C%96</t>
+  </si>
+  <si>
+    <t>词形变化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E5%BE%B7%E8%AF%AD%E6%AD%A3%E5%86%99%E6%B3%95%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%80%8F%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>路透社</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%B0%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>德新社</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%8E%B1%E8%8C%B5-%E5%A8%81%E6%96%AF%E7%89%B9%E6%B3%95%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>北莱茵-威斯特法伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>巴伐利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E7%99%BB%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>杜登词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD%E6%96%B9%E8%A8%80</t>
+  </si>
+  <si>
+    <t>德语方言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E7%93%A6%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>施瓦本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>黑森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%9A%86</t>
+  </si>
+  <si>
+    <t>科隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8D%91%E6%96%AF%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>阿尔卑斯山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%BA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>汉诺威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%85%8B%E4%BC%A6%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>梅克伦堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>普鲁士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%85%8B%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>萨克森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%9D%A5%E6%A2%85</t>
+  </si>
+  <si>
+    <t>不来梅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%A1%9E%E5%B0%94%E5%A4%9A%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>杜塞尔多夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
+  </si>
+  <si>
+    <t>法庭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>希伯来语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+  </si>
+  <si>
+    <t>第二次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E6%B5%B7%E5%A7%86</t>
+  </si>
+  <si>
+    <t>曼海姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9B%BD%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>跨国公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%97%A8%E5%AD%90%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>西门子公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD%E5%8C%96</t>
+  </si>
+  <si>
+    <t>英语化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%9C%BA</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Nationalencyklopedin</t>
+  </si>
+  <si>
+    <t>Nationalencyklopedin</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/European_Commission</t>
+  </si>
+  <si>
+    <t>European Commission</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
+  </si>
+  <si>
+    <t>维基百科</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/</t>
+  </si>
+  <si>
+    <t>de-</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
+  </si>
+  <si>
+    <t>维基文库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>维基教科书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E%E6%94%AF</t>
+  </si>
+  <si>
+    <t>北日耳曼语支</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>冰岛语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>法罗语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>新挪威语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E9%9D%A2%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>书面挪威语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>丹麦语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%BE%B7%E5%85%B0%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>日德兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81-%E5%BC%97%E9%87%8C%E8%A5%BF%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>盎格鲁-弗里西语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E8%98%87%E6%A0%BC%E8%98%AD%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>低地苏格兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E8%A5%BF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>弗里西语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E9%87%8C%E8%A5%BF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西弗里西语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%BC%97%E9%87%8C%E8%A5%BF%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>北弗里西语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E5%BC%97%E9%87%8C%E8%A5%BF%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>沙特弗里西语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>低地日耳曼语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E8%8A%92%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>弗拉芒语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%98%AD%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>南非语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%A0%A1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>林堡语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BD%8E%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西低地德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E4%BD%8E%E5%9C%B0%E6%92%92%E5%85%8B%E9%81%9C%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>荷兰低地撒克逊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BD%8E%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>东低地德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%80%E8%AB%BE%E4%BD%8E%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>门诺低地德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>中部德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>上德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>阿勒曼尼语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E5%BE%B7%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>瑞士德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E7%93%A6%E6%9C%AC%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>施瓦本语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9-%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>奥地利-巴伐利亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B8%83%E9%87%8C%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>辛布里语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E7%AC%AC%E7%B7%92%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>意第绪语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E6%A0%BC%E6%8B%89%E8%AB%BE%E5%BE%B7%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>贝尔格拉诺德语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AD%90%E7%9B%9F%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>Template talk-欧盟官方语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>欧洲联盟语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>保加利亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>捷克语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>爱沙尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>芬兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>匈牙利语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>爱尔兰语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>拉脱维亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>立陶宛语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>马耳他语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>葡萄牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>罗马尼亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>斯洛伐克语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>克罗埃西亚语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞士历史辞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%87_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
-  </si>
-  <si>
-    <t>德文 (消歧义)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_德语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E5%BE%B7%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>标准德语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦斯登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
-  </si>
-  <si>
-    <t>比利時</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>西欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>第二语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80%E7%B3%BB%E5%B1%9E%E5%88%86%E7%B1%BB</t>
-  </si>
-  <si>
-    <t>语言系属分类</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AC%A7%E8%AF%AD%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>印欧语系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AF%AD%E6%97%8F</t>
-  </si>
-  <si>
-    <t>日耳曼语族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AF%AD%E6%94%AF</t>
-  </si>
-  <si>
-    <t>西日耳曼语支</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E5%BE%B7%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>高地德语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%AB%98%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>古高地德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E9%AB%98%E5%9C%B0%E5%BE%B7%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>中古高地德语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
-  </si>
-  <si>
-    <t>拉丁字母</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E6%AD%A3%E5%AF%AB%E6%B3%95</t>
-  </si>
-  <si>
-    <t>德語正寫法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>官方語言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
-  </si>
-  <si>
-    <t>丹麥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
-  </si>
-  <si>
-    <t>波蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_639-1</t>
-  </si>
-  <si>
-    <t>ISO 639-1</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_639-2</t>
-  </si>
-  <si>
-    <t>ISO 639-2</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_639-3</t>
-  </si>
-  <si>
-    <t>ISO 639-3</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E9%9F%B3%E6%A0%87</t>
-  </si>
-  <si>
-    <t>国际音标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>操作系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E9%A1%B5%E6%B5%8F%E8%A7%88%E5%99%A8</t>
-  </si>
-  <si>
-    <t>网页浏览器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%B1%E7%A0%81</t>
-  </si>
-  <si>
-    <t>乱码</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E%E6%94%AF</t>
-  </si>
-  <si>
-    <t>西日耳曼語支</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>大國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>母语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>马丁·路德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%8F</t>
-  </si>
-  <si>
-    <t>圣经</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>拉丁语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>希腊语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E5%BE%B7%E8%AA%9E%E7%A4%BE%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>比利時德語社群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B0%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>少数民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%9F%B3%E7%AC%A6</t>
-  </si>
-  <si>
-    <t>分音符</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%9F%B3</t>
-  </si>
-  <si>
-    <t>元音</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%9F</t>
-  </si>
-  <si>
-    <t>ß</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>德語史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
-  </si>
-  <si>
-    <t>中世纪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%8D%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>词根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>日耳曼语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>法兰克人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>法语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
-  </si>
-  <si>
-    <t>方言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97</t>
-  </si>
-  <si>
-    <t>德意志</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%B8%E4%BE%AF</t>
-  </si>
-  <si>
-    <t>诸侯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E5%BE%B7%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>低地德语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%90%A8%E5%90%8C%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>汉萨同盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7_(%E5%A4%A7%E8%A5%BF%E6%B4%8B)</t>
-  </si>
-  <si>
-    <t>北海 (大西洋)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>波罗的海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>宗教改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>標準德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E9%98%BF%E5%BE%B7%E9%9A%86</t>
-  </si>
-  <si>
-    <t>约翰·克里斯托弗·阿德隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E5%85%B8</t>
-  </si>
-  <si>
-    <t>字典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E5%B8%83%C2%B7%E6%A0%BC%E6%9E%97</t>
-  </si>
-  <si>
-    <t>雅各布·格林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%A0%BC%E6%9E%97</t>
-  </si>
-  <si>
-    <t>威廉·格林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E5%BE%B7%E8%AA%9E%E6%AD%A3%E5%AF%AB%E6%B3%95%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>1996年德語正寫法改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E8%81%94%E9%82%A6%E5%AE%AA%E6%B3%95%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>德国联邦宪法法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>荷兰语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>意大利语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E6%96%87%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>卢森堡语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9B%BC%E4%BB%80%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>罗曼什语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩爾多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%92%82%E7%BD%97%E5%B0%94</t>
-  </si>
-  <si>
-    <t>南蒂罗尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E6%96%87%E5%8C%96%E5%8D%80</t>
-  </si>
-  <si>
-    <t>德語文化區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
-  </si>
-  <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%88%BE%E8%96%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>亞爾薩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9E%97</t>
-  </si>
-  <si>
-    <t>洛林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>法国大区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E6%89%8E%E8%AB%BE%E8%87%AA%E6%B2%BB%E7%9C%81</t>
-  </si>
-  <si>
-    <t>波爾扎諾自治省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>愛爾蘭共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E5%AD%97%E6%AF%8D</t>
-  </si>
-  <si>
-    <t>德語字母</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/A</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%84</t>
-  </si>
-  <si>
-    <t>Ä</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/B</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/D</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/E</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/F</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/G</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/H</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/I</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/J</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/K</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/L</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/M</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/N</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/O</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%96</t>
-  </si>
-  <si>
-    <t>Ö</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/P</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Q</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/R</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/S</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/T</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/U</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%C3%9C</t>
-  </si>
-  <si>
-    <t>Ü</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/V</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/W</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/X</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Y</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Z</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E9%9F%B3%E5%AD%97%E6%AF%8D</t>
-  </si>
-  <si>
-    <t>元音字母</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%85%E9%9F%B3%E5%AD%97%E6%AF%8D</t>
-  </si>
-  <si>
-    <t>辅音字母</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>计算机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E7%AC%A6%E7%BC%96%E7%A0%81</t>
-  </si>
-  <si>
-    <t>字符编码</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96</t>
-  </si>
-  <si>
-    <t>國際標準</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86%E4%BB%A3%E7%A0%81</t>
-  </si>
-  <si>
-    <t>国家标准代码</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/BIG5</t>
-  </si>
-  <si>
-    <t>BIG5</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Windows</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Unicode</t>
-  </si>
-  <si>
-    <t>Unicode</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GB2312</t>
-  </si>
-  <si>
-    <t>GB2312</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GNU/Linux</t>
-  </si>
-  <si>
-    <t>GNU/Linux</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTF-8</t>
-  </si>
-  <si>
-    <t>UTF-8</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E%E9%9F%B3%E7%B3%BB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>德語音系學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E9%9F%B3</t>
-  </si>
-  <si>
-    <t>重音</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%9D%A5%E8%AF%8D</t>
-  </si>
-  <si>
-    <t>外来词</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%B9%B9</t>
-  </si>
-  <si>
-    <t>詞幹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%8A%82</t>
-  </si>
-  <si>
-    <t>音节</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BC%80</t>
-  </si>
-  <si>
-    <t>前缀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%BC%80</t>
-  </si>
-  <si>
-    <t>后缀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E9%9F%B3</t>
-  </si>
-  <si>
-    <t>长音</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD%E8%AF%AD%E6%B3%95</t>
-  </si>
-  <si>
-    <t>德语语法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%88%E6%8A%98%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>屈折语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>孤立语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>瑞典语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>俄语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>波兰语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>梵語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%90%90%E6%BA%AB</t>
-  </si>
-  <si>
-    <t>馬克·吐溫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>法語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC_(%E8%AF%AD%E6%B3%95)</t>
-  </si>
-  <si>
-    <t>格 (语法)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0_(%E8%AF%AD%E6%B3%95)</t>
-  </si>
-  <si>
-    <t>数 (语法)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%A9%9E</t>
-  </si>
-  <si>
-    <t>名詞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%AE%B9%E8%AF%8D</t>
-  </si>
-  <si>
-    <t>形容词</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%A9%9E</t>
-  </si>
-  <si>
-    <t>副詞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%A0%E8%AF%8D</t>
-  </si>
-  <si>
-    <t>冠词</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>变格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%A7%B0</t>
-  </si>
-  <si>
-    <t>人称</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E6%80%81</t>
-  </si>
-  <si>
-    <t>时态</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E6%B0%A3</t>
-  </si>
-  <si>
-    <t>語氣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%9E%E5%BD%A2%E8%AE%8A%E5%8C%96</t>
-  </si>
-  <si>
-    <t>詞形變化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E5%BE%B7%E8%AF%AD%E6%AD%A3%E5%86%99%E6%B3%95%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>1996年德语正写法改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>盧森堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%80%8F%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>路透社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%96%B0%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>德新社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%8E%B1%E8%8C%B5-%E5%A8%81%E6%96%AF%E7%89%B9%E6%B3%95%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>北莱茵-威斯特法伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>巴伐利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E7%99%BB%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>杜登詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD%E6%96%B9%E8%A8%80</t>
-  </si>
-  <si>
-    <t>德语方言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E7%93%A6%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>施瓦本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>巴伐利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>黑森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%9A%86</t>
-  </si>
-  <si>
-    <t>科隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>高地德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8D%91%E6%96%AF%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>阿尔卑斯山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%BA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>汉诺威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>低地德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%85%8B%E4%BC%A6%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>梅克伦堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>普鲁士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%85%8B%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>萨克森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%9D%A5%E6%A2%85</t>
-  </si>
-  <si>
-    <t>不来梅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%A1%9E%E5%B0%94%E5%A4%9A%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>杜塞尔多夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>法庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E4%BC%AF%E6%9D%A5%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>希伯来语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
-  </si>
-  <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E6%B5%B7%E5%A7%86</t>
-  </si>
-  <si>
-    <t>曼海姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9B%BD%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>跨国公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%97%A8%E5%AD%90%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>西门子公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD%E5%8C%96</t>
-  </si>
-  <si>
-    <t>英语化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%9C%BA</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Nationalencyklopedin</t>
-  </si>
-  <si>
-    <t>Nationalencyklopedin</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/European_Commission</t>
-  </si>
-  <si>
-    <t>European Commission</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
-  </si>
-  <si>
-    <t>維基百科</t>
-  </si>
-  <si>
-    <t>https://de.wikipedia.org/wiki/</t>
-  </si>
-  <si>
-    <t>de-</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
-  </si>
-  <si>
-    <t>维基文库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>維基教科書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
-  </si>
-  <si>
-    <t>日耳曼語族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E%E6%94%AF</t>
-  </si>
-  <si>
-    <t>北日耳曼語支</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>冰島語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>法罗语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>新挪威語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%B8%E9%9D%A2%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>書面挪威語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>丹麥語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%BE%B7%E5%85%B0%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>日德兰语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>瑞典語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%B2%81-%E5%BC%97%E9%87%8C%E8%A5%BF%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>盎格鲁-弗里西语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E8%98%87%E6%A0%BC%E8%98%AD%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>低地蘇格蘭語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E8%A5%BF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>弗里西語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E9%87%8C%E8%A5%BF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西弗里西語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%BC%97%E9%87%8C%E8%A5%BF%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>北弗里西语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E5%BC%97%E9%87%8C%E8%A5%BF%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>沙特弗里西語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>低地日耳曼語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>荷蘭語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E8%8A%92%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>弗拉芒语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%98%AD%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西蘭語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>南非語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%A0%A1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>林堡语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BD%8E%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西低地德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E4%BD%8E%E5%9C%B0%E6%92%92%E5%85%8B%E9%81%9C%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>荷蘭低地撒克遜語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BD%8E%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>東低地德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%80%E8%AB%BE%E4%BD%8E%E5%9C%B0%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>門諾低地德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>中部德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>盧森堡語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>賓夕法尼亞德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>上德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>阿勒曼尼语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E5%BE%B7%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>瑞士德语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E7%93%A6%E6%9C%AC%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>施瓦本语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9-%E5%B7%B4%E4%BC%90%E5%88%A9%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>奥地利-巴伐利亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B8%83%E9%87%8C%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>辛布里語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E7%AC%AC%E7%B7%92%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>意第緒語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E6%A0%BC%E6%8B%89%E8%AB%BE%E5%BE%B7%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>貝爾格拉諾德語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AD%90%E7%9B%9F%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>Template talk-歐盟官方語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>歐洲聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>歐洲聯盟語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>保加利亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>捷克语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>丹麦语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>爱沙尼亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>芬兰语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>匈牙利语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>愛爾蘭語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>拉脱维亚语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>立陶宛语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>马耳他语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>葡萄牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>斯洛伐克语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞士歷史辭典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I324"/>
+  <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,7 +3121,7 @@
         <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -3204,10 +3147,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>51</v>
@@ -3233,10 +3176,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3262,10 +3205,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3291,10 +3234,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
@@ -3349,10 +3292,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3378,10 +3321,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -3407,10 +3350,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>6</v>
@@ -3436,10 +3379,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -3465,10 +3408,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
         <v>26</v>
@@ -3494,10 +3437,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -3523,10 +3466,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>7</v>
@@ -3552,10 +3495,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -3581,10 +3524,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3610,10 +3553,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3639,10 +3582,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3668,10 +3611,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -3697,10 +3640,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -3726,10 +3669,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3755,10 +3698,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -3784,10 +3727,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3813,10 +3756,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -3842,10 +3785,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3871,10 +3814,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G61" t="n">
         <v>9</v>
@@ -3900,10 +3843,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>26</v>
@@ -3929,10 +3872,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3958,10 +3901,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3987,10 +3930,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G65" t="n">
         <v>17</v>
@@ -4016,10 +3959,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4045,10 +3988,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4074,10 +4017,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4103,10 +4046,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4132,10 +4075,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -4161,10 +4104,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4190,10 +4133,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -4219,10 +4162,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4248,10 +4191,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4277,10 +4220,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4306,10 +4249,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4335,10 +4278,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>8</v>
@@ -4364,10 +4307,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4393,10 +4336,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4422,10 +4365,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -4451,10 +4394,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4480,10 +4423,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4509,10 +4452,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4538,10 +4481,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4567,10 +4510,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="G85" t="n">
         <v>5</v>
@@ -4596,10 +4539,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4625,10 +4568,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4654,10 +4597,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4683,10 +4626,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4712,10 +4655,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4741,10 +4684,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4770,10 +4713,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>11</v>
@@ -4799,10 +4742,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4828,10 +4771,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4857,10 +4800,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4886,10 +4829,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4915,10 +4858,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4944,10 +4887,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4973,10 +4916,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5002,10 +4945,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5031,10 +4974,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5060,10 +5003,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5089,10 +5032,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -5118,10 +5061,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5147,10 +5090,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -5176,10 +5119,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5205,10 +5148,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5234,10 +5177,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5263,10 +5206,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5292,10 +5235,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5321,10 +5264,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5350,10 +5293,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5379,10 +5322,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5408,10 +5351,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5437,10 +5380,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5466,10 +5409,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5495,10 +5438,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5524,10 +5467,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5553,10 +5496,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5582,10 +5525,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5611,10 +5554,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5640,10 +5583,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5669,10 +5612,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>19</v>
@@ -5698,10 +5641,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>39</v>
@@ -5727,13 +5670,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5756,10 +5699,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -5785,10 +5728,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>6</v>
@@ -5814,13 +5757,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5843,10 +5786,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G129" t="n">
         <v>71</v>
@@ -5872,10 +5815,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G130" t="n">
         <v>50</v>
@@ -5901,13 +5844,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G131" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5930,13 +5873,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G132" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5959,13 +5902,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G133" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -5988,13 +5931,13 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G134" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -6017,13 +5960,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G135" t="n">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6046,13 +5989,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F136" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G136" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6075,10 +6018,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F137" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G137" t="n">
         <v>69</v>
@@ -6104,13 +6047,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F138" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G138" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6133,13 +6076,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F139" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G139" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -6162,10 +6105,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F140" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G140" t="n">
         <v>10</v>
@@ -6191,10 +6134,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F141" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G141" t="n">
         <v>145</v>
@@ -6220,13 +6163,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F142" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G142" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6249,13 +6192,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G143" t="n">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -6278,10 +6221,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F144" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G144" t="n">
         <v>7</v>
@@ -6307,13 +6250,13 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F145" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G145" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6336,10 +6279,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F146" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6365,13 +6308,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F147" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G147" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6394,13 +6337,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F148" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G148" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6423,13 +6366,13 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F149" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G149" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6452,10 +6395,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F150" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G150" t="n">
         <v>25</v>
@@ -6481,13 +6424,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F151" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G151" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6510,13 +6453,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F152" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G152" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6539,13 +6482,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F153" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G153" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6568,10 +6511,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F154" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G154" t="n">
         <v>24</v>
@@ -6597,13 +6540,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F155" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G155" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6626,10 +6569,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F156" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G156" t="n">
         <v>4</v>
@@ -6655,10 +6598,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F157" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G157" t="n">
         <v>5</v>
@@ -6684,13 +6627,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F158" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G158" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6713,10 +6656,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F159" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G159" t="n">
         <v>159</v>
@@ -6742,13 +6685,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F160" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6771,10 +6714,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F161" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G161" t="n">
         <v>5</v>
@@ -6800,13 +6743,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F162" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G162" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6829,13 +6772,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F163" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G163" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6858,13 +6801,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F164" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G164" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -6887,13 +6830,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F165" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G165" t="n">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6916,13 +6859,13 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F166" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G166" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -6945,13 +6888,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F167" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G167" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -6974,10 +6917,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F168" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G168" t="n">
         <v>23</v>
@@ -7003,10 +6946,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F169" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G169" t="n">
         <v>205</v>
@@ -7032,10 +6975,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F170" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -7061,10 +7004,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F171" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G171" t="n">
         <v>4</v>
@@ -7090,10 +7033,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F172" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G172" t="n">
         <v>11</v>
@@ -7119,13 +7062,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F173" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G173" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -7148,10 +7091,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F174" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G174" t="n">
         <v>13</v>
@@ -7177,13 +7120,13 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F175" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G175" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7206,13 +7149,13 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F176" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -7235,10 +7178,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F177" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G177" t="n">
         <v>68</v>
@@ -7264,10 +7207,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F178" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7293,10 +7236,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F179" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G179" t="n">
         <v>87</v>
@@ -7322,10 +7265,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F180" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7351,10 +7294,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F181" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G181" t="n">
         <v>27</v>
@@ -7380,10 +7323,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F182" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7409,10 +7352,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F183" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7438,10 +7381,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F184" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7467,10 +7410,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F185" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G185" t="n">
         <v>5</v>
@@ -7496,10 +7439,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F186" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7525,10 +7468,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F187" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7554,10 +7497,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F188" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7583,10 +7526,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F189" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7612,10 +7555,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F190" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7641,10 +7584,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F191" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7670,10 +7613,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F192" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7699,10 +7642,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F193" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7728,10 +7671,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F194" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7757,10 +7700,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F195" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G195" t="n">
         <v>10</v>
@@ -7786,10 +7729,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F196" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -7815,10 +7758,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F197" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7844,10 +7787,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F198" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G198" t="n">
         <v>5</v>
@@ -7873,10 +7816,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F199" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7902,10 +7845,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F200" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7931,10 +7874,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F201" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7960,10 +7903,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F202" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7989,10 +7932,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F203" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8018,10 +7961,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F204" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8047,10 +7990,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F205" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G205" t="n">
         <v>18</v>
@@ -8076,10 +8019,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F206" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8105,10 +8048,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F207" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8134,10 +8077,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F208" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -8163,10 +8106,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F209" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8192,10 +8135,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F210" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8221,10 +8164,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F211" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8250,10 +8193,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F212" t="s">
-        <v>360</v>
+        <v>115</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8279,13 +8222,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F213" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G213" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8308,13 +8251,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F214" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G214" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8337,13 +8280,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F215" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G215" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8366,10 +8309,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F216" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8395,13 +8338,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F217" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8424,10 +8367,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F218" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8453,10 +8396,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F219" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8482,10 +8425,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F220" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8511,10 +8454,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F221" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8540,10 +8483,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F222" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8569,10 +8512,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F223" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8598,10 +8541,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F224" t="s">
-        <v>384</v>
+        <v>142</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8627,13 +8570,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F225" t="s">
-        <v>386</v>
+        <v>16</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -8656,13 +8599,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F226" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -8685,10 +8628,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F227" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8714,10 +8657,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F228" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8743,10 +8686,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="F229" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8772,10 +8715,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F230" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8801,10 +8744,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F231" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8830,13 +8773,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F232" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -8859,13 +8802,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F233" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -8888,13 +8831,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F234" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="G234" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -8917,13 +8860,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F235" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -8946,10 +8889,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F236" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8975,13 +8918,13 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F237" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -9004,10 +8947,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F238" t="s">
-        <v>410</v>
+        <v>32</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9033,10 +8976,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F239" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9062,13 +9005,13 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F240" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -9091,13 +9034,13 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F241" t="s">
-        <v>416</v>
+        <v>123</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -9120,13 +9063,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="F242" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="G242" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -9149,10 +9092,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F243" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9178,13 +9121,13 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F244" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9207,13 +9150,13 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F245" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -9236,10 +9179,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F246" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9265,13 +9208,13 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="F247" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -9294,10 +9237,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F248" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9323,13 +9266,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="F249" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -9352,10 +9295,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F250" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9381,10 +9324,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="F251" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9410,13 +9353,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F252" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9439,13 +9382,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F253" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9468,10 +9411,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F254" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9497,13 +9440,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F255" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9526,13 +9469,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F256" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9555,10 +9498,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="F257" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9584,10 +9527,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="F258" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9613,13 +9556,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="F259" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -9642,13 +9585,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="F260" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -9671,10 +9614,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="F261" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9700,13 +9643,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="F262" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -9729,13 +9672,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="F263" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -9758,13 +9701,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="F264" t="s">
-        <v>462</v>
+        <v>28</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -9787,13 +9730,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F265" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G265" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -9816,10 +9759,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F266" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9845,10 +9788,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F267" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9874,10 +9817,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F268" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9903,10 +9846,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="F269" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9932,13 +9875,13 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F270" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -9961,13 +9904,13 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F271" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="G271" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -9990,13 +9933,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F272" t="s">
-        <v>478</v>
+        <v>341</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10019,13 +9962,13 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F273" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G273" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10048,10 +9991,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="F274" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10077,13 +10020,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="F275" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -10106,13 +10049,13 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="F276" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="G276" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -10135,10 +10078,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F277" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10164,10 +10107,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="F278" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10193,10 +10136,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="F279" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10222,13 +10165,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F280" t="s">
-        <v>494</v>
+        <v>146</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10251,13 +10194,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="F281" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -10280,10 +10223,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="F282" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10309,10 +10252,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="F283" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10338,13 +10281,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="F284" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -10367,13 +10310,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="F285" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -10396,10 +10339,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="F286" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10425,10 +10368,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="F287" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10454,10 +10397,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="F288" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10483,13 +10426,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="F289" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -10512,13 +10455,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="F290" t="s">
-        <v>514</v>
+        <v>152</v>
       </c>
       <c r="G290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -10541,10 +10484,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="F291" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10570,10 +10513,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="F292" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10599,13 +10542,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="F293" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -10628,13 +10571,13 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="F294" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -10657,10 +10600,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="F295" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10686,13 +10629,13 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="F296" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -10715,13 +10658,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="F297" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -10744,13 +10687,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="F298" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -10773,13 +10716,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="F299" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="G299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -10802,13 +10745,13 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="F300" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="G300" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -10831,13 +10774,13 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="F301" t="s">
-        <v>536</v>
+        <v>46</v>
       </c>
       <c r="G301" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -10860,13 +10803,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="F302" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -10889,13 +10832,13 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="F303" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="G303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -10918,10 +10861,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="F304" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10947,10 +10890,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="F305" t="s">
-        <v>544</v>
+        <v>459</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -10976,10 +10919,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="F306" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11005,10 +10948,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="F307" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11034,10 +10977,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="F308" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11063,10 +11006,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="F309" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11092,10 +11035,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="F310" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11121,10 +11064,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="F311" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11150,10 +11093,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="F312" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11179,10 +11122,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="F313" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11208,10 +11151,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="F314" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11237,10 +11180,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="F315" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11266,10 +11209,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="F316" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11295,13 +11238,13 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F317" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -11324,13 +11267,13 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="F318" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="G318" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -11353,10 +11296,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="F319" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11382,10 +11325,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="F320" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11411,10 +11354,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="F321" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11440,10 +11383,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F322" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11469,10 +11412,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="F323" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11498,18 +11441,47 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="F324" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
       </c>
       <c r="I324" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>324</v>
+      </c>
+      <c r="E325" t="s">
+        <v>561</v>
+      </c>
+      <c r="F325" t="s">
+        <v>563</v>
+      </c>
+      <c r="G325" t="n">
+        <v>1</v>
+      </c>
+      <c r="H325" t="s">
+        <v>4</v>
+      </c>
+      <c r="I325" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/德语_intext.xlsx
+++ b/xlsx/德语_intext.xlsx
@@ -29,7 +29,7 @@
     <t>德文 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_德语</t>
+    <t>体育运动_体育运动_欧洲议会_德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E5%BE%B7%E8%AF%AD</t>
@@ -5704,7 +5704,7 @@
         <v>242</v>
       </c>
       <c r="G124" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5733,7 +5733,7 @@
         <v>242</v>
       </c>
       <c r="G125" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5820,7 +5820,7 @@
         <v>246</v>
       </c>
       <c r="G128" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5907,7 +5907,7 @@
         <v>248</v>
       </c>
       <c r="G131" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -6052,7 +6052,7 @@
         <v>254</v>
       </c>
       <c r="G136" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6110,7 +6110,7 @@
         <v>256</v>
       </c>
       <c r="G138" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6197,7 +6197,7 @@
         <v>258</v>
       </c>
       <c r="G141" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6226,7 +6226,7 @@
         <v>260</v>
       </c>
       <c r="G142" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6255,7 +6255,7 @@
         <v>260</v>
       </c>
       <c r="G143" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -6313,7 +6313,7 @@
         <v>262</v>
       </c>
       <c r="G145" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6371,7 +6371,7 @@
         <v>264</v>
       </c>
       <c r="G147" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6429,7 +6429,7 @@
         <v>266</v>
       </c>
       <c r="G149" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6458,7 +6458,7 @@
         <v>268</v>
       </c>
       <c r="G150" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -6487,7 +6487,7 @@
         <v>268</v>
       </c>
       <c r="G151" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6545,7 +6545,7 @@
         <v>270</v>
       </c>
       <c r="G153" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6603,7 +6603,7 @@
         <v>272</v>
       </c>
       <c r="G155" t="n">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -6719,7 +6719,7 @@
         <v>276</v>
       </c>
       <c r="G159" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6806,7 +6806,7 @@
         <v>280</v>
       </c>
       <c r="G162" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6835,7 +6835,7 @@
         <v>280</v>
       </c>
       <c r="G163" t="n">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6951,7 +6951,7 @@
         <v>284</v>
       </c>
       <c r="G167" t="n">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -6980,7 +6980,7 @@
         <v>286</v>
       </c>
       <c r="G168" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -7009,7 +7009,7 @@
         <v>286</v>
       </c>
       <c r="G169" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7183,7 +7183,7 @@
         <v>292</v>
       </c>
       <c r="G175" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7299,7 +7299,7 @@
         <v>296</v>
       </c>
       <c r="G179" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -7328,7 +7328,7 @@
         <v>298</v>
       </c>
       <c r="G180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
